--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="119">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
     <t>Allegati</t>
   </si>
   <si>
@@ -86,6 +89,9 @@
     <t>numeroatto</t>
   </si>
   <si>
+    <t>obbligatoria</t>
+  </si>
+  <si>
     <t>Data formazione</t>
   </si>
   <si>
@@ -330,6 +336,9 @@
   </si>
   <si>
     <t>195,196</t>
+  </si>
+  <si>
+    <t>{evento.ausilioInterprete,=,false}</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -418,7 +427,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G86"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -430,6 +439,7 @@
     <col min="4" max="4" width="36.2421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -451,185 +461,215 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -651,1505 +691,1733 @@
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="E17" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="E37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B44" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>81</v>
-      </c>
       <c r="E44" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E82" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="F82" s="2" t="s">
-        <v>105</v>
+        <v>10</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -2405,7 +2405,7 @@
         <v>117</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>75</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -32,7 +32,7 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
-    <t>Condizioni obbligatorieta'</t>
+    <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
     <t>Allegati</t>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -32,49 +32,52 @@
     <t>Note obbligatorieta' formule</t>
   </si>
   <si>
+    <t>Condizioni obbligatorieta'</t>
+  </si>
+  <si>
+    <t>Allegati</t>
+  </si>
+  <si>
+    <t>Ricevuta pagamento contributo di 250,00</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Copia integrale dell'atto di nascita dell'interessato</t>
+  </si>
+  <si>
+    <t>Atto di matrimonio</t>
+  </si>
+  <si>
+    <t>Decreto di naturalizzazione straniero</t>
+  </si>
+  <si>
+    <t>Formula</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
-  </si>
-  <si>
-    <t>Allegati</t>
-  </si>
-  <si>
-    <t>Ricevuta pagamento contributo di 250,00</t>
-  </si>
-  <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Copia integrale dell'atto di nascita dell'interessato</t>
-  </si>
-  <si>
-    <t>Atto di matrimonio</t>
-  </si>
-  <si>
-    <t>Decreto di naturalizzazione straniero</t>
-  </si>
-  <si>
-    <t>Formula</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
   </si>
   <si>
     <t>Formazione atto</t>
@@ -692,1732 +695,1732 @@
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>83</v>
-      </c>
       <c r="E43" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>18</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -341,7 +341,7 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>{evento.ausilioInterprete,=,false}</t>
+    <t>evento.ausilioInterprete,=,false</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -442,7 +442,7 @@
     <col min="4" max="4" width="36.2421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="30.4921875" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="120">
   <si>
     <t>Sezione</t>
   </si>
@@ -248,6 +248,24 @@
     <t>tipoPerditaPerMatrimonio</t>
   </si>
   <si>
+    <t>flag dichiarante</t>
+  </si>
+  <si>
+    <t>flagDichiarante</t>
+  </si>
+  <si>
+    <t>flag comparente</t>
+  </si>
+  <si>
+    <t>flagComparente</t>
+  </si>
+  <si>
+    <t>flag firmatario</t>
+  </si>
+  <si>
+    <t>flagFirmatario</t>
+  </si>
+  <si>
     <t>Dati Generali</t>
   </si>
   <si>
@@ -312,24 +330,6 @@
   </si>
   <si>
     <t>Indirizzo di residenza</t>
-  </si>
-  <si>
-    <t>flag dichiarante</t>
-  </si>
-  <si>
-    <t>flagDichiarante</t>
-  </si>
-  <si>
-    <t>flag comparente</t>
-  </si>
-  <si>
-    <t>flagComparente</t>
-  </si>
-  <si>
-    <t>flag firmatario</t>
-  </si>
-  <si>
-    <t>flagFirmatario</t>
   </si>
   <si>
     <t>Interprete</t>
@@ -430,7 +430,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1275,19 +1275,19 @@
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>80</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1298,19 +1298,19 @@
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1321,22 +1321,22 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B39" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F39" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>26</v>
@@ -1344,19 +1344,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>37</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,19 +1367,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>41</v>
+        <v>87</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>42</v>
+        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1390,22 +1390,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1413,19 +1413,19 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
@@ -1436,19 +1436,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1459,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1482,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1505,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1528,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>84</v>
-      </c>
       <c r="E48" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1551,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1574,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1597,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1620,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1643,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,19 +1666,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,19 +1689,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1712,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1735,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,19 +1758,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,19 +1781,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,19 +1804,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,71 +1827,71 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>41</v>
+        <v>82</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="64">
@@ -1899,19 +1899,19 @@
         <v>106</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G64" s="2" t="s">
         <v>109</v>
@@ -1922,7 +1922,7 @@
         <v>106</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
@@ -1931,7 +1931,7 @@
         <v>107</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1945,7 +1945,7 @@
         <v>106</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>86</v>
+        <v>41</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
@@ -1954,7 +1954,7 @@
         <v>107</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1968,16 +1968,16 @@
         <v>106</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -1991,19 +1991,19 @@
         <v>106</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
         <v>109</v>
@@ -2014,16 +2014,16 @@
         <v>106</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2037,7 +2037,7 @@
         <v>106</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
@@ -2046,10 +2046,10 @@
         <v>107</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
         <v>109</v>
@@ -2060,19 +2060,19 @@
         <v>106</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G71" s="2" t="s">
         <v>109</v>
@@ -2083,16 +2083,16 @@
         <v>106</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2106,19 +2106,19 @@
         <v>106</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G73" s="2" t="s">
         <v>109</v>
@@ -2129,7 +2129,7 @@
         <v>106</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
@@ -2138,7 +2138,7 @@
         <v>107</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2152,16 +2152,16 @@
         <v>106</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2175,19 +2175,19 @@
         <v>106</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>109</v>
@@ -2198,16 +2198,16 @@
         <v>106</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2221,7 +2221,7 @@
         <v>106</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
@@ -2230,10 +2230,10 @@
         <v>107</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>109</v>
@@ -2244,7 +2244,7 @@
         <v>106</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
@@ -2253,7 +2253,7 @@
         <v>107</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>108</v>
@@ -2267,16 +2267,16 @@
         <v>106</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2290,19 +2290,19 @@
         <v>106</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>103</v>
+        <v>72</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>109</v>
@@ -2313,19 +2313,19 @@
         <v>106</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>107</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>108</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>109</v>
@@ -2333,71 +2333,71 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>111</v>
+        <v>78</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>114</v>
+        <v>80</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>115</v>
+        <v>81</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>26</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86">
@@ -2405,21 +2405,90 @@
         <v>110</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D86" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -183,6 +183,12 @@
   </si>
   <si>
     <t>nomeComuneNascita</t>
+  </si>
+  <si>
+    <t>Località estera</t>
+  </si>
+  <si>
+    <t>localitaEsteraNascita</t>
   </si>
   <si>
     <t>Nazionalità</t>
@@ -430,7 +436,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1051,7 +1057,7 @@
         <v>57</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>35</v>
@@ -1143,7 +1149,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>35</v>
@@ -1175,7 +1181,7 @@
         <v>68</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>26</v>
@@ -1198,7 +1204,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1221,7 +1227,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1258,16 +1264,16 @@
         <v>75</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="E36" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="F36" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1278,13 +1284,13 @@
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>79</v>
@@ -1344,19 +1350,19 @@
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1367,7 +1373,7 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>87</v>
@@ -1376,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>88</v>
@@ -1390,22 +1396,22 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C42" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F42" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>26</v>
@@ -1413,22 +1419,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1436,19 +1442,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1459,19 +1465,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1482,19 +1488,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>91</v>
+        <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1505,19 +1511,19 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>90</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
@@ -1528,19 +1534,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1551,19 +1557,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1574,19 +1580,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1603,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1620,19 +1626,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1643,19 +1649,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>98</v>
+        <v>57</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1666,7 +1672,7 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>99</v>
@@ -1675,10 +1681,10 @@
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1689,7 +1695,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>100</v>
@@ -1698,10 +1704,10 @@
         <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1712,19 +1718,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1735,19 +1741,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1758,7 +1764,7 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>103</v>
@@ -1767,10 +1773,10 @@
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1781,7 +1787,7 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>104</v>
@@ -1790,10 +1796,10 @@
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1804,7 +1810,7 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>105</v>
@@ -1813,10 +1819,10 @@
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1827,19 +1833,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1850,19 +1856,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1873,19 +1879,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1896,191 +1902,191 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>38</v>
+        <v>85</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>109</v>
+        <v>26</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>43</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>95</v>
@@ -2089,21 +2095,21 @@
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>96</v>
@@ -2112,383 +2118,452 @@
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>99</v>
+        <v>57</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>108</v>
+        <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>78</v>
+        <v>105</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="B84" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B86" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G86" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D86" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>115</v>
+        <v>83</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>116</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E89" s="2" t="s">
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E91" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="F89" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G89" s="2" t="s">
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -347,7 +347,10 @@
     <t>195,196</t>
   </si>
   <si>
-    <t>evento.ausilioInterprete,=,false</t>
+    <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -448,7 +451,7 @@
     <col min="4" max="4" width="36.2421875" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="27.140625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="27.3203125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="29.109375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="89.16796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2457,7 +2460,7 @@
         <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2477,19 +2480,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2503,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
@@ -2523,10 +2526,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2535,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2546,10 +2549,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2558,7 +2561,7 @@
         <v>78</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
   <si>
     <t>Sezione</t>
   </si>
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
-  </si>
-  <si>
-    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2460,7 +2457,7 @@
         <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>84</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2480,19 +2477,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="C89" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D89" s="2" t="s">
+      <c r="E89" s="2" t="s">
         <v>115</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2503,19 +2500,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>117</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
@@ -2526,10 +2523,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2538,7 +2535,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2549,10 +2546,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2561,7 +2558,7 @@
         <v>78</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="123">
   <si>
     <t>Sezione</t>
   </si>
@@ -348,6 +348,9 @@
   </si>
   <si>
     <t>evento.ausilioInterprete,!=,true &amp;&amp; evento.ausilioInterprete,!=,S &amp;&amp; evento.ausilioInterprete,!=,SI</t>
+  </si>
+  <si>
+    <t>Firmatario</t>
   </si>
   <si>
     <t>Dettagli evento</t>
@@ -2457,7 +2460,7 @@
         <v>108</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
@@ -2477,19 +2480,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
@@ -2500,19 +2503,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>18</v>
@@ -2523,10 +2526,10 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
@@ -2535,7 +2538,7 @@
         <v>24</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
@@ -2546,10 +2549,10 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
@@ -2558,7 +2561,7 @@
         <v>78</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="131">
   <si>
     <t>Sezione</t>
   </si>
@@ -243,6 +243,30 @@
   </si>
   <si>
     <t>indirizzoResidenza</t>
+  </si>
+  <si>
+    <t>Provincia AIRE</t>
+  </si>
+  <si>
+    <t>idProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Provincia AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE</t>
+  </si>
+  <si>
+    <t>idComuneAIRE</t>
+  </si>
+  <si>
+    <t>Comune AIRE - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneAIRE</t>
   </si>
   <si>
     <t>Motivo perdita cittadinanza</t>
@@ -439,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1290,13 +1314,13 @@
         <v>77</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>10</v>
@@ -1310,16 +1334,16 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>10</v>
@@ -1333,16 +1357,16 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>10</v>
@@ -1356,16 +1380,16 @@
         <v>33</v>
       </c>
       <c r="B40" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -1376,19 +1400,19 @@
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1399,19 +1423,19 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>86</v>
+        <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>90</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1422,22 +1446,22 @@
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E43" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F43" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
         <v>26</v>
@@ -1445,19 +1469,19 @@
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -1468,19 +1492,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1491,19 +1515,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>92</v>
+        <v>24</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1514,22 +1538,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1537,19 +1561,19 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
@@ -1560,19 +1584,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1583,19 +1607,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1606,19 +1630,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1629,19 +1653,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1652,19 +1676,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1675,19 +1699,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1698,19 +1722,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1721,19 +1745,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1744,19 +1768,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1767,19 +1791,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1790,19 +1814,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1813,19 +1837,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1836,19 +1860,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1859,19 +1883,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1882,19 +1906,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1905,19 +1929,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1928,19 +1952,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>84</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1951,622 +1975,714 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>34</v>
+        <v>115</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>38</v>
+        <v>89</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>41</v>
+        <v>90</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>42</v>
+        <v>91</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>111</v>
+        <v>26</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>93</v>
+        <v>34</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>37</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>43</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>57</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>110</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>116</v>
+        <v>76</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D90" s="2" t="s">
-        <v>115</v>
-      </c>
       <c r="E90" s="2" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D91" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="2" t="s">
+      <c r="B93" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
+      <c r="C93" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
   <si>
     <t>Sezione</t>
   </si>
@@ -137,6 +137,12 @@
     <t>codiceFiscale</t>
   </si>
   <si>
+    <t>Identificativo unico nazionale</t>
+  </si>
+  <si>
+    <t>idANPR</t>
+  </si>
+  <si>
     <t>Sesso</t>
   </si>
   <si>
@@ -335,10 +341,7 @@
     <t>Comune di nascita - Descrizione</t>
   </si>
   <si>
-    <t>Nazionalita</t>
-  </si>
-  <si>
-    <t>Nazionalita - Descrizione</t>
+    <t>Nazionalità - Descrizione</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -463,7 +466,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -900,7 +903,7 @@
         <v>41</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>35</v>
@@ -992,7 +995,7 @@
         <v>49</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>35</v>
@@ -1024,7 +1027,7 @@
         <v>52</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>26</v>
@@ -1047,7 +1050,7 @@
         <v>54</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>26</v>
@@ -1070,7 +1073,7 @@
         <v>56</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>26</v>
@@ -1093,7 +1096,7 @@
         <v>58</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>26</v>
@@ -1107,7 +1110,7 @@
         <v>59</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>35</v>
@@ -1199,7 +1202,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>35</v>
@@ -1231,7 +1234,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1254,7 +1257,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1277,7 +1280,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1323,7 +1326,7 @@
         <v>78</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>26</v>
@@ -1406,13 +1409,13 @@
         <v>85</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>87</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
@@ -1426,13 +1429,13 @@
         <v>33</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>89</v>
@@ -1492,19 +1495,19 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>96</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1515,7 +1518,7 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>97</v>
@@ -1524,7 +1527,7 @@
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>24</v>
+        <v>88</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>98</v>
@@ -1538,22 +1541,22 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E47" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E47" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F47" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>26</v>
@@ -1561,22 +1564,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1584,19 +1587,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1607,19 +1610,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1630,19 +1633,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>43</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1653,19 +1656,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B52" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C52" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="E52" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1676,19 +1679,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1699,19 +1702,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1722,7 +1725,7 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>105</v>
@@ -1731,10 +1734,10 @@
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1745,7 +1748,7 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>106</v>
@@ -1754,10 +1757,10 @@
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1768,19 +1771,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>57</v>
+        <v>107</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1791,19 +1794,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1814,19 +1817,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>108</v>
+        <v>59</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1837,19 +1840,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1860,19 +1863,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1883,19 +1886,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1906,19 +1909,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1929,19 +1932,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1952,19 +1955,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1975,19 +1978,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -1998,19 +2001,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>88</v>
+        <v>115</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2021,19 +2024,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2044,19 +2047,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2067,622 +2070,691 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>92</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>37</v>
+        <v>94</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>38</v>
+        <v>95</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>57</v>
+        <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>88</v>
+        <v>114</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>90</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="C92" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="G92" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>124</v>
+        <v>91</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>125</v>
+        <v>92</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B95" s="2" t="s">
-        <v>127</v>
-      </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>128</v>
+        <v>95</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E98" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="E96" s="2" t="s">
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="134">
   <si>
     <t>Sezione</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>nazionalita</t>
+  </si>
+  <si>
+    <t>Residenza non nota</t>
+  </si>
+  <si>
+    <t>flagIrreperibile</t>
   </si>
   <si>
     <t>Stato Residenza</t>
@@ -466,7 +472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H102"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1179,7 +1185,7 @@
         <v>65</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>35</v>
@@ -1202,7 +1208,7 @@
         <v>67</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>35</v>
@@ -1234,7 +1240,7 @@
         <v>70</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>26</v>
@@ -1257,7 +1263,7 @@
         <v>72</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>26</v>
@@ -1280,7 +1286,7 @@
         <v>74</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>26</v>
@@ -1303,7 +1309,7 @@
         <v>76</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>26</v>
@@ -1349,7 +1355,7 @@
         <v>80</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>26</v>
@@ -1432,13 +1438,13 @@
         <v>87</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
@@ -1452,13 +1458,13 @@
         <v>33</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>35</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>91</v>
@@ -1518,19 +1524,19 @@
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="C46" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1541,7 +1547,7 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>99</v>
@@ -1550,7 +1556,7 @@
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>24</v>
+        <v>90</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>100</v>
@@ -1564,22 +1570,22 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="C48" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F48" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>26</v>
@@ -1587,22 +1593,22 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>26</v>
@@ -1610,19 +1616,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1633,19 +1639,19 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
@@ -1656,19 +1662,19 @@
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
@@ -1679,19 +1685,19 @@
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
@@ -1702,19 +1708,19 @@
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
@@ -1725,19 +1731,19 @@
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
@@ -1748,19 +1754,19 @@
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
@@ -1771,19 +1777,19 @@
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
@@ -1794,19 +1800,19 @@
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
@@ -1817,19 +1823,19 @@
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
@@ -1840,19 +1846,19 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
@@ -1863,19 +1869,19 @@
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
@@ -1886,19 +1892,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
@@ -1909,19 +1915,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>111</v>
+        <v>65</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
@@ -1932,7 +1938,7 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>112</v>
@@ -1941,10 +1947,10 @@
         <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1955,7 +1961,7 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>113</v>
@@ -1964,10 +1970,10 @@
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1978,7 +1984,7 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>114</v>
@@ -1987,10 +1993,10 @@
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2001,7 +2007,7 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>115</v>
@@ -2010,10 +2016,10 @@
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2024,7 +2030,7 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>116</v>
@@ -2033,10 +2039,10 @@
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2047,19 +2053,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>90</v>
+        <v>117</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2070,19 +2076,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>92</v>
+        <v>118</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2093,19 +2099,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2116,214 +2122,214 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>120</v>
+        <v>26</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>104</v>
+        <v>45</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>107</v>
@@ -2332,21 +2338,21 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>108</v>
@@ -2355,113 +2361,113 @@
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>61</v>
+        <v>110</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>110</v>
+        <v>61</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>111</v>
@@ -2470,291 +2476,360 @@
         <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>112</v>
+        <v>65</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>119</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>90</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>10</v>
+        <v>121</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F95" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="C95" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F95" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="G95" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G96" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G96" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G97" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D97" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F97" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B99" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E99" s="2" t="s">
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E101" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
+      <c r="F101" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
         <v>26</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="138">
   <si>
     <t>Sezione</t>
   </si>
@@ -77,6 +77,12 @@
     <t>197</t>
   </si>
   <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
     <t>Si puo' ignorare la sezione per</t>
   </si>
   <si>
@@ -348,6 +354,12 @@
   </si>
   <si>
     <t>Nazionalità - Descrizione</t>
+  </si>
+  <si>
+    <t>Comprensione</t>
+  </si>
+  <si>
+    <t>tipoImpedimento</t>
   </si>
   <si>
     <t>Stato di residenza</t>
@@ -472,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H106"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -718,1089 +730,1089 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>98</v>
+        <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>90</v>
+        <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>101</v>
-      </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>34</v>
+        <v>101</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>36</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="E50" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>105</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>104</v>
-      </c>
       <c r="E55" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>109</v>
@@ -1809,21 +1821,21 @@
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>110</v>
@@ -1832,734 +1844,734 @@
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>59</v>
+        <v>111</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>61</v>
+        <v>112</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>70</v>
+        <v>115</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>41</v>
+        <v>98</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>105</v>
+        <v>43</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>106</v>
+        <v>45</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>107</v>
+        <v>47</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>61</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>114</v>
@@ -2568,44 +2580,44 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>116</v>
@@ -2614,21 +2626,21 @@
         <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>117</v>
@@ -2637,21 +2649,21 @@
         <v>17</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>118</v>
@@ -2660,177 +2672,269 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>121</v>
+        <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="B96" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>93</v>
+        <v>76</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>94</v>
+        <v>120</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>95</v>
+        <v>78</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>125</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="E99" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F99" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D99" s="2" t="s">
+      <c r="G99" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G99" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D100" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D100" s="2" t="s">
+      <c r="E100" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G100" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="E101" s="2" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="E102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="C102" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="E102" s="2" t="s">
+      <c r="C104" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="2" t="s">
         <v>26</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="742" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="163">
   <si>
     <t>Sezione</t>
   </si>
@@ -327,6 +327,81 @@
   </si>
   <si>
     <t>datiProdotti</t>
+  </si>
+  <si>
+    <t>Atto nascita intestatario</t>
+  </si>
+  <si>
+    <t>Provincia registrazione</t>
+  </si>
+  <si>
+    <t>evento.eventoCollegato</t>
+  </si>
+  <si>
+    <t>idProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>opzionale</t>
+  </si>
+  <si>
+    <t>Provincia registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>siglaProvinciaRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione</t>
+  </si>
+  <si>
+    <t>idComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Comune registrazione - Descrizione</t>
+  </si>
+  <si>
+    <t>nomeComuneRegistrazione</t>
+  </si>
+  <si>
+    <t>Tipo evento</t>
+  </si>
+  <si>
+    <t>idtipocontenuto</t>
+  </si>
+  <si>
+    <t>Numero Comunale</t>
+  </si>
+  <si>
+    <t>Anno atto</t>
+  </si>
+  <si>
+    <t>annoAtto</t>
+  </si>
+  <si>
+    <t>Data atto</t>
+  </si>
+  <si>
+    <t>Parte</t>
+  </si>
+  <si>
+    <t>parte</t>
+  </si>
+  <si>
+    <t>Serie</t>
+  </si>
+  <si>
+    <t>serie</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>volume</t>
+  </si>
+  <si>
+    <t>Tipo registro</t>
+  </si>
+  <si>
+    <t>tipologia</t>
   </si>
   <si>
     <t>Coniuge</t>
@@ -484,13 +559,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H106"/>
+  <dimension ref="A1:H118"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.75390625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="22.59765625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="45.6796875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="36.2421875" customWidth="true" bestFit="true"/>
@@ -1654,22 +1729,22 @@
         <v>105</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>38</v>
+        <v>108</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="52">
@@ -1677,22 +1752,22 @@
         <v>105</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>39</v>
+        <v>110</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>40</v>
+        <v>111</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53">
@@ -1700,22 +1775,22 @@
         <v>105</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54">
@@ -1723,22 +1798,22 @@
         <v>105</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>45</v>
+        <v>114</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>46</v>
+        <v>115</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="55">
@@ -1746,22 +1821,22 @@
         <v>105</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>48</v>
+        <v>117</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="56">
@@ -1769,22 +1844,22 @@
         <v>105</v>
       </c>
       <c r="B56" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C56" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>106</v>
-      </c>
       <c r="E56" s="2" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="57">
@@ -1792,22 +1867,22 @@
         <v>105</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="58">
@@ -1815,22 +1890,22 @@
         <v>105</v>
       </c>
       <c r="B58" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G58" s="2" t="s">
         <v>109</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="59">
@@ -1838,22 +1913,22 @@
         <v>105</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="60">
@@ -1861,22 +1936,22 @@
         <v>105</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="61">
@@ -1884,22 +1959,22 @@
         <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="62">
@@ -1907,42 +1982,42 @@
         <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G63" s="2" t="s">
         <v>28</v>
@@ -1950,19 +2025,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
@@ -1973,19 +2048,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>10</v>
@@ -1996,19 +2071,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2019,19 +2094,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2042,19 +2117,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2065,19 +2140,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2088,19 +2163,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2111,19 +2186,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2134,19 +2209,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2157,19 +2232,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2180,19 +2255,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2203,19 +2278,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2226,19 +2301,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>105</v>
+        <v>130</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2249,691 +2324,967 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>36</v>
+        <v>139</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>67</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>44</v>
+        <v>70</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G79" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>47</v>
+        <v>143</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G81" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>107</v>
+        <v>144</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>50</v>
+        <v>76</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>109</v>
+        <v>146</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>110</v>
+        <v>147</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>111</v>
+        <v>94</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>58</v>
+        <v>95</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>60</v>
+        <v>97</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>61</v>
+        <v>98</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>62</v>
+        <v>99</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>126</v>
+        <v>28</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>113</v>
+        <v>39</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>43</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>67</v>
+        <v>45</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>72</v>
+        <v>50</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>125</v>
+        <v>10</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>82</v>
+        <v>60</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>125</v>
+        <v>150</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>95</v>
+        <v>62</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>97</v>
+        <v>64</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>123</v>
+        <v>148</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>127</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>124</v>
+        <v>149</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>99</v>
+        <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>126</v>
+        <v>151</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>132</v>
+        <v>67</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>133</v>
+        <v>68</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>26</v>
+        <v>149</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>135</v>
+        <v>70</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>28</v>
+        <v>151</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C114" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D117" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="E106" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F106" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G106" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>28</v>
       </c>
     </row>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -2882,7 +2882,7 @@
         <v>63</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>149</v>
@@ -2905,7 +2905,7 @@
         <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>149</v>
@@ -2914,7 +2914,7 @@
         <v>66</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>150</v>
       </c>
       <c r="G102" s="2" t="s">
         <v>151</v>

--- a/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
+++ b/docs/Mapping_casi_uso/cittadinanza/Citt_040.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="826" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="868" uniqueCount="167">
   <si>
     <t>Sezione</t>
   </si>
@@ -153,6 +153,18 @@
   </si>
   <si>
     <t>sesso</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita</t>
+  </si>
+  <si>
+    <t>idFormatodata</t>
+  </si>
+  <si>
+    <t>Formato Data Nascita - Descrizione</t>
+  </si>
+  <si>
+    <t>formatodata</t>
   </si>
   <si>
     <t>Data nascita</t>
@@ -559,7 +571,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:H124"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1088,7 +1100,7 @@
         <v>47</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>37</v>
@@ -1111,7 +1123,7 @@
         <v>49</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>37</v>
@@ -1157,7 +1169,7 @@
         <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>37</v>
@@ -1180,7 +1192,7 @@
         <v>55</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
@@ -1189,7 +1201,7 @@
         <v>56</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>28</v>
@@ -1272,7 +1284,7 @@
         <v>63</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>37</v>
@@ -1281,7 +1293,7 @@
         <v>64</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>28</v>
@@ -1295,7 +1307,7 @@
         <v>65</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>37</v>
@@ -1318,7 +1330,7 @@
         <v>67</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>37</v>
@@ -1341,7 +1353,7 @@
         <v>69</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>37</v>
@@ -1373,7 +1385,7 @@
         <v>72</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>28</v>
@@ -1488,7 +1500,7 @@
         <v>82</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G40" s="2" t="s">
         <v>28</v>
@@ -1511,7 +1523,7 @@
         <v>84</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G41" s="2" t="s">
         <v>28</v>
@@ -1534,7 +1546,7 @@
         <v>86</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G42" s="2" t="s">
         <v>28</v>
@@ -1594,13 +1606,13 @@
         <v>91</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>10</v>
@@ -1614,16 +1626,16 @@
         <v>35</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>10</v>
@@ -1637,13 +1649,13 @@
         <v>35</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>97</v>
@@ -1680,19 +1692,19 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E49" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>10</v>
@@ -1703,19 +1715,19 @@
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="B50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>104</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>10</v>
@@ -1726,76 +1738,76 @@
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="C51" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E51" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="F51" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>109</v>
+        <v>28</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B53" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C53" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>114</v>
@@ -1804,7 +1816,7 @@
         <v>17</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>115</v>
@@ -1813,12 +1825,12 @@
         <v>10</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>116</v>
@@ -1827,7 +1839,7 @@
         <v>17</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>117</v>
@@ -1836,12 +1848,12 @@
         <v>10</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>118</v>
@@ -1850,113 +1862,113 @@
         <v>17</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>27</v>
+        <v>119</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>125</v>
+        <v>30</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>126</v>
@@ -1965,7 +1977,7 @@
         <v>17</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>127</v>
@@ -1974,12 +1986,12 @@
         <v>10</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>128</v>
@@ -1988,7 +2000,7 @@
         <v>17</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>129</v>
@@ -1997,73 +2009,73 @@
         <v>10</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B63" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C63" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D63" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="E63" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="E63" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="F63" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>132</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>40</v>
+        <v>133</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G65" s="2" t="s">
         <v>28</v>
@@ -2071,19 +2083,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>10</v>
@@ -2094,19 +2106,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>10</v>
@@ -2117,19 +2129,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>10</v>
@@ -2140,19 +2152,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>133</v>
+        <v>47</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>10</v>
@@ -2163,19 +2175,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>134</v>
+        <v>49</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>10</v>
@@ -2186,19 +2198,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D71" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="C71" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E71" s="2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>10</v>
@@ -2209,19 +2221,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>10</v>
@@ -2232,19 +2244,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>10</v>
@@ -2255,19 +2267,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>10</v>
@@ -2278,19 +2290,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>10</v>
@@ -2301,19 +2313,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>10</v>
@@ -2324,19 +2336,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>140</v>
+        <v>64</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>10</v>
@@ -2347,19 +2359,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>10</v>
@@ -2370,19 +2382,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>141</v>
+        <v>67</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>10</v>
@@ -2393,19 +2405,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>10</v>
@@ -2416,7 +2428,7 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>143</v>
@@ -2425,10 +2437,10 @@
         <v>17</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>10</v>
@@ -2439,19 +2451,19 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>144</v>
+        <v>71</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>10</v>
@@ -2462,7 +2474,7 @@
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>145</v>
@@ -2471,10 +2483,10 @@
         <v>17</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>10</v>
@@ -2485,7 +2497,7 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>146</v>
@@ -2494,10 +2506,10 @@
         <v>17</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>10</v>
@@ -2508,7 +2520,7 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>147</v>
@@ -2517,10 +2529,10 @@
         <v>17</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>10</v>
@@ -2531,19 +2543,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>94</v>
+        <v>148</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>10</v>
@@ -2554,19 +2566,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>96</v>
+        <v>149</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>10</v>
@@ -2577,19 +2589,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>98</v>
+        <v>150</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>10</v>
@@ -2600,306 +2612,306 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>36</v>
+        <v>151</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>46</v>
+        <v>103</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G92" s="2" t="s">
-        <v>151</v>
+        <v>28</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G93" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>133</v>
+        <v>43</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G95" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>134</v>
+        <v>45</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G96" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G97" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>136</v>
+        <v>49</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G98" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G99" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G100" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>63</v>
+        <v>137</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G101" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B102" s="2" t="s">
         <v>138</v>
@@ -2908,21 +2920,21 @@
         <v>17</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G102" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B103" s="2" t="s">
         <v>139</v>
@@ -2931,44 +2943,44 @@
         <v>17</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>140</v>
+        <v>60</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G103" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>67</v>
+        <v>140</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>141</v>
@@ -2977,314 +2989,452 @@
         <v>17</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G105" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>142</v>
+        <v>65</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G106" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>143</v>
+        <v>67</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G107" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G108" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G109" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>146</v>
+        <v>71</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>17</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>150</v>
+        <v>10</v>
       </c>
       <c r="G111" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>95</v>
+        <v>76</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G112" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>97</v>
+        <v>78</v>
       </c>
       <c r="F113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G113" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>152</v>
-      </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G114" s="2" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B115" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="C115" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D115" s="2" t="s">
+      <c r="E115" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="F115" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G115" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B116" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D116" s="2" t="s">
+      <c r="E116" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="G116" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="F116" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G116" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D117" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C117" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="E117" s="2" t="s">
-        <v>160</v>
+        <v>86</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>10</v>
+        <v>154</v>
       </c>
       <c r="G117" s="2" t="s">
-        <v>28</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D118" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="E118" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F118" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G118" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D119" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E119" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="F119" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G119" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F120" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G120" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D118" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E118" s="2" t="s">
+      <c r="C122" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="E122" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F118" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G118" s="2" t="s">
+      <c r="F122" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G122" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="F123" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G123" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D124" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G124" s="2" t="s">
         <v>28</v>
       </c>
     </row>
